--- a/biology/Zoologie/Fanjingshania/Fanjingshania.xlsx
+++ b/biology/Zoologie/Fanjingshania/Fanjingshania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fanjingshania renovata
 Fanjingshania est un genre fossile de la classe également éteinte des acanthodiens, qui possédaient à la fois des caractères des poissons osseux et des poissons cartilagineux. 
@@ -513,10 +525,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daté d'environ 439 Ma[1], il vivait au Silurien inférieur de Chine — peu après grande biodiversification ordovicienne — ce qui en fait, en 2022, le plus ancien acanthodien connu[2],[3]. 
-Il a été identifié dans le sud de la Chine par une équipe de l'université normale de Qujing. Sa découverte repousse de 14 Ma l'apparition des vertébrés à mâchoire et suggère que ces derniers se seraient diversifiés pour former les clades des Placodermes, des Condrichthyes (poissons à cartilage) et des Osteichthyes (poissons osseux)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daté d'environ 439 Ma, il vivait au Silurien inférieur de Chine — peu après grande biodiversification ordovicienne — ce qui en fait, en 2022, le plus ancien acanthodien connu,. 
+Il a été identifié dans le sud de la Chine par une équipe de l'université normale de Qujing. Sa découverte repousse de 14 Ma l'apparition des vertébrés à mâchoire et suggère que ces derniers se seraient diversifiés pour former les clades des Placodermes, des Condrichthyes (poissons à cartilage) et des Osteichthyes (poissons osseux).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 (en) Plamen S. Andreev, Ivan J. Sansom, Qiang Li, Wenjin Zhao, Jianhua Wang, Chun-Chieh Wang, Lijian Peng, Liantao Jia, Tuo Qiao et Min Zhu, « Spiny chondrichthyan from the lower Silurian of South China », Nature, NPG et Springer Science+Business Media, vol. 609, no 7929,‎ 29 septembre 2022, p. 969-974 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, DOI 10.1038/S41586-022-05233-8, lire en ligne). </t>
